--- a/data/trans_camb/P27D_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P27D_R-Urba-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -50,6 +50,27 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
@@ -476,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -492,6 +513,9 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -506,31 +530,49 @@
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
+      <c r="H1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
           <t>Mz2/Mz1</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Mz2/Mz1</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>Mz2/Mz1</t>
         </is>
@@ -542,6 +584,9 @@
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -556,15 +601,30 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>-0,63</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
           <t>-2,06</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0,65</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>0,74</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>-0,63</t>
         </is>
@@ -579,15 +639,30 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-3,98; 2,71</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>-5,04; 1,22</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-2,37; 3,71</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
         <is>
           <t>-2,24; 3,97</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-2,17; 2,36</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>-2,87; 1,63</t>
         </is>
@@ -602,15 +677,30 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>-8,1%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
           <t>-22,42%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>6,79%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
         <is>
           <t>7,84%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0,05%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>-6,78%</t>
         </is>
@@ -625,15 +715,30 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-41,5; 45,07</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
           <t>-46,33; 17,26</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-21,85; 47,59</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
         <is>
           <t>-20,05; 49,84</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-21,39; 31,05</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>-26,59; 20,09</t>
         </is>
@@ -652,15 +757,30 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>-2,62</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
           <t>-0,23</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1,43</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
         <is>
           <t>-1,32</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>-0,72</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>-0,74</t>
         </is>
@@ -675,15 +795,30 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>-6,35; 1,03</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
           <t>-4,07; 3,92</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>-4,91; 6,76</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
         <is>
           <t>-7,02; 5,07</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>-4,31; 2,86</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
         <is>
           <t>-4,48; 2,56</t>
         </is>
@@ -698,15 +833,30 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>-33,68%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
           <t>-4,2%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>15,23%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
         <is>
           <t>-10,87%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>-8,39%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>-8,55%</t>
         </is>
@@ -721,15 +871,30 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>-66,01; 21,96</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
           <t>-55,96; 139,99</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>-40,6; 92,56</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
         <is>
           <t>-47,21; 60,16</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>-41,26; 41,77</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
         <is>
           <t>-42,79; 38,49</t>
         </is>
@@ -757,6 +922,21 @@
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -784,6 +964,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
@@ -807,6 +1002,21 @@
           <t>—%</t>
         </is>
       </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
@@ -830,6 +1040,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -844,15 +1069,30 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>-1,13</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
           <t>-1,63</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0,83</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
         <is>
           <t>0,3</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>-0,15</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
         <is>
           <t>-0,66</t>
         </is>
@@ -867,15 +1107,30 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>-3,61; 1,4</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
           <t>-4,13; 0,82</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>-1,9; 3,32</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
         <is>
           <t>-2,26; 3,05</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-1,91; 1,74</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
         <is>
           <t>-2,41; 1,17</t>
         </is>
@@ -890,15 +1145,30 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>-14,54%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
           <t>-19,69%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>8,8%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
         <is>
           <t>2,96%</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>-1,78%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
         <is>
           <t>-7,19%</t>
         </is>
@@ -913,15 +1183,30 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>-39,35; 21,78</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
           <t>-42,23; 12,17</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>-16,94; 40,73</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
         <is>
           <t>-19,2; 35,02</t>
         </is>
       </c>
-      <c r="E19" s="2" t="inlineStr">
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>-19,52; 22,73</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>-24,37; 14,31</t>
         </is>
@@ -935,9 +1220,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>

--- a/data/trans_camb/P27D_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P27D_R-Urba-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -599,467 +608,319 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-0,63</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-2,06</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,65</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,74</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-0,63</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-0.7356237934539198</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-2.071813554986189</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.7907666911118605</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.8001767541353524</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0.02731335231206805</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-0.6043531419733308</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-3,98; 2,71</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-5,04; 1,22</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-2,37; 3,71</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-2,24; 3,97</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-2,17; 2,36</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-2,87; 1,63</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-4.166298447260575</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-5.017166940449591</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-2.291325384454937</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-2.167039798953394</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-2.174212313046221</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-2.76504563472359</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-8,1%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-22,42%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>6,79%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>7,84%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0,05%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-6,78%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>2.530808801197928</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>1.214636528032485</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>3.801984699334551</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>4.033570430807262</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>2.405579891896566</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>1.701633519528585</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-41,5; 45,07</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-46,33; 17,26</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-21,85; 47,59</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-20,05; 49,84</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-21,39; 31,05</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-26,59; 20,09</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>-0.09347375231227087</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>-0.2250495427115496</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.08382737540888788</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.08490961543412051</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.003144799818939367</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.06486626357329957</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-2,62</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-0,23</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,43</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-1,32</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-0,72</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-0,74</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.4278494552322551</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.4685335626033668</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.2071711607536844</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.1936256156354886</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.2091258843963382</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.2636497174980355</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-6,35; 1,03</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-4,07; 3,92</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-4,91; 6,76</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-7,02; 5,07</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-4,31; 2,86</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-4,48; 2,56</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.4285915218525767</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.1719957678303876</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.5048901055017007</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.5106353293200655</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.3172642790369157</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.2123325013828763</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-33,68%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-4,2%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>15,23%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-10,87%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-8,39%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-8,55%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>-2.098308907441071</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.2481610566880156</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>1.794659837031964</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-1.365326596671369</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-0.2784553435005138</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>-0.7661463499838497</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-66,01; 21,96</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-55,96; 139,99</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-40,6; 92,56</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-47,21; 60,16</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-41,26; 41,77</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-42,79; 38,49</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-5.570440847404033</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-4.044473391342675</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-3.863772347089821</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-7.066825737385845</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-3.642130196157602</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-4.597405982821582</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>1.470845028343371</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>3.865810686264411</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>7.066727316344639</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>5.139539181670516</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>3.112341071143413</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>2.539131983978526</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>-0.29012404212413</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>-0.04610682316781527</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.1991694605123681</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>-0.1121813948738646</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>-0.03427922208103603</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.08897460074637314</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.637385939644873</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.5573556366884361</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.3524601473637639</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.4743438575172509</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.3724632152500965</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.4308019834684165</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.2832056562522408</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>1.376145734622858</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.9948922084164297</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.5990841155202336</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.4866343595827133</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.3751073789457917</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1067,153 +928,245 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-1,13</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-1,63</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,83</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>0,3</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-0,15</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>-0,66</t>
-        </is>
-      </c>
+      <c r="C16" s="5" t="inlineStr"/>
+      <c r="D16" s="5" t="inlineStr"/>
+      <c r="E16" s="5" t="inlineStr"/>
+      <c r="F16" s="5" t="inlineStr"/>
+      <c r="G16" s="5" t="inlineStr"/>
+      <c r="H16" s="5" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-3,61; 1,4</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-4,13; 0,82</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-1,9; 3,32</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-2,26; 3,05</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-1,91; 1,74</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-2,41; 1,17</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="inlineStr"/>
+      <c r="D17" s="5" t="inlineStr"/>
+      <c r="E17" s="5" t="inlineStr"/>
+      <c r="F17" s="5" t="inlineStr"/>
+      <c r="G17" s="5" t="inlineStr"/>
+      <c r="H17" s="5" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>-14,54%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>-19,69%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>8,8%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>2,96%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>-1,78%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>-7,19%</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="inlineStr"/>
+      <c r="D18" s="5" t="inlineStr"/>
+      <c r="E18" s="5" t="inlineStr"/>
+      <c r="F18" s="5" t="inlineStr"/>
+      <c r="G18" s="5" t="inlineStr"/>
+      <c r="H18" s="5" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-39,35; 21,78</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-42,23; 12,17</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-16,94; 40,73</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>-19,2; 35,02</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>-19,52; 22,73</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>-24,37; 14,31</t>
-        </is>
-      </c>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="inlineStr"/>
+      <c r="D19" s="6" t="inlineStr"/>
+      <c r="E19" s="6" t="inlineStr"/>
+      <c r="F19" s="6" t="inlineStr"/>
+      <c r="G19" s="6" t="inlineStr"/>
+      <c r="H19" s="6" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="inlineStr"/>
+      <c r="D20" s="6" t="inlineStr"/>
+      <c r="E20" s="6" t="inlineStr"/>
+      <c r="F20" s="6" t="inlineStr"/>
+      <c r="G20" s="6" t="inlineStr"/>
+      <c r="H20" s="6" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="inlineStr"/>
+      <c r="D21" s="6" t="inlineStr"/>
+      <c r="E21" s="6" t="inlineStr"/>
+      <c r="F21" s="6" t="inlineStr"/>
+      <c r="G21" s="6" t="inlineStr"/>
+      <c r="H21" s="6" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-0.9761929815010006</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-1.643266142642767</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>1.022478968039735</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.334766267748135</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.01779979830311418</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>-0.6448210591660869</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-3.348201033559853</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-4.191919064769326</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-1.55455135048211</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>-2.236415686544581</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>-1.649661158744619</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>-2.413761764194147</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>1.565733563461218</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.7414701337711095</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>3.46022159663781</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>3.089892443206509</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>1.903678933682108</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>1.163239941330564</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>-0.1280600516662285</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>-0.198222587457657</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>0.1095947391351458</v>
+      </c>
+      <c r="F25" s="6" t="n">
+        <v>0.03341865145358578</v>
+      </c>
+      <c r="G25" s="6" t="n">
+        <v>0.002095705993296526</v>
+      </c>
+      <c r="H25" s="6" t="n">
+        <v>-0.07042543191478484</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.3790664139623124</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.4236086629138112</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.1442108355986184</v>
+      </c>
+      <c r="F26" s="6" t="n">
+        <v>-0.1865805522207079</v>
+      </c>
+      <c r="G26" s="6" t="n">
+        <v>-0.1726194596756359</v>
+      </c>
+      <c r="H26" s="6" t="n">
+        <v>-0.2399714398149423</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.2472588808120828</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.1164618132492548</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.4258836074152204</v>
+      </c>
+      <c r="F27" s="6" t="n">
+        <v>0.3669129237257368</v>
+      </c>
+      <c r="G27" s="6" t="n">
+        <v>0.2534700540984622</v>
+      </c>
+      <c r="H27" s="6" t="n">
+        <v>0.145980595204262</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1221,14 +1174,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
